--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Parts</t>
@@ -482,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +546,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -590,20 +596,23 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>18</v>
+      <c r="P2">
+        <v>0</v>
       </c>
       <c r="Q2" t="s">
         <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -649,20 +658,23 @@
       <c r="O3">
         <v>1</v>
       </c>
-      <c r="P3" t="s">
-        <v>18</v>
+      <c r="P3">
+        <v>1</v>
       </c>
       <c r="Q3" t="s">
         <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -708,20 +720,23 @@
       <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" t="s">
-        <v>18</v>
+      <c r="P4">
+        <v>2</v>
       </c>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -767,20 +782,23 @@
       <c r="O5">
         <v>3</v>
       </c>
-      <c r="P5" t="s">
-        <v>18</v>
+      <c r="P5">
+        <v>3</v>
       </c>
       <c r="Q5" t="s">
         <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -826,547 +844,577 @@
       <c r="O6">
         <v>4</v>
       </c>
-      <c r="P6" t="s">
-        <v>18</v>
+      <c r="P6">
+        <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" t="s">
+        <v>21</v>
+      </c>
+      <c r="S10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
         <v>24</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R9" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>11</v>
-      </c>
-      <c r="P13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>13</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15">
+      <c r="S15" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -59,6 +59,27 @@
   </si>
   <si>
     <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
   </si>
   <si>
     <t>Parts</t>
@@ -485,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:27">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +570,29 @@
       <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:27">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -599,20 +641,41 @@
       <c r="P2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>25</v>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:27">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -661,20 +724,41 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
+      <c r="Y3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:27">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -723,20 +807,41 @@
       <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" t="s">
         <v>27</v>
       </c>
-      <c r="T4">
-        <v>10</v>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:27">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -785,636 +890,867 @@
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" t="s">
         <v>28</v>
       </c>
-      <c r="T5">
-        <v>6</v>
+      <c r="Z6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" t="s">
-        <v>21</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6">
+    <row r="7" spans="1:27">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA7">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>5</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S7" t="s">
+    <row r="8" spans="1:27">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>7</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10">
+        <v>8</v>
+      </c>
+      <c r="V10">
+        <v>8</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <v>9</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11">
+        <v>9</v>
+      </c>
+      <c r="V11">
+        <v>9</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>10</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" t="s">
         <v>29</v>
       </c>
-      <c r="T7">
+      <c r="Z12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>6</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>6</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>6</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>19</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
+    <row r="13" spans="1:27">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13">
+        <v>11</v>
+      </c>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>11</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+      <c r="J14">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <v>12</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>12</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="s">
         <v>30</v>
       </c>
-      <c r="T8">
+      <c r="Z14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>7</v>
-      </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>7</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
-      </c>
-      <c r="N9">
-        <v>7</v>
-      </c>
-      <c r="O9">
-        <v>7</v>
-      </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S9" t="s">
+    <row r="15" spans="1:27">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15">
+        <v>13</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>13</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15">
+        <v>13</v>
+      </c>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15">
+        <v>13</v>
+      </c>
+      <c r="V15">
+        <v>13</v>
+      </c>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="s">
         <v>31</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>8</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10">
-        <v>8</v>
-      </c>
-      <c r="O10">
-        <v>8</v>
-      </c>
-      <c r="P10">
-        <v>8</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>19</v>
-      </c>
-      <c r="R10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S10" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>9</v>
-      </c>
-      <c r="L11">
-        <v>9</v>
-      </c>
-      <c r="M11">
-        <v>9</v>
-      </c>
-      <c r="N11">
-        <v>9</v>
-      </c>
-      <c r="O11">
-        <v>9</v>
-      </c>
-      <c r="P11">
-        <v>9</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>10</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>11</v>
-      </c>
-      <c r="G13">
-        <v>11</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>11</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>11</v>
-      </c>
-      <c r="N13">
-        <v>11</v>
-      </c>
-      <c r="O13">
-        <v>11</v>
-      </c>
-      <c r="P13">
-        <v>11</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" t="s">
-        <v>22</v>
-      </c>
-      <c r="S13" t="s">
-        <v>35</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="I14">
-        <v>12</v>
-      </c>
-      <c r="J14">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>12</v>
-      </c>
-      <c r="L14">
-        <v>12</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
-      </c>
-      <c r="N14">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
-      </c>
-      <c r="R14" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15">
-        <v>13</v>
-      </c>
-      <c r="G15">
-        <v>13</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="I15">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>13</v>
-      </c>
-      <c r="K15">
-        <v>13</v>
-      </c>
-      <c r="L15">
-        <v>13</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
-      </c>
-      <c r="N15">
-        <v>13</v>
-      </c>
-      <c r="O15">
-        <v>13</v>
-      </c>
-      <c r="P15">
-        <v>13</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15">
+      <c r="Z15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1</t>
+  </si>
+  <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
   <si>
     <t>Parts</t>
   </si>
@@ -440,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,242 +468,377 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenayang/Desktop/python Workspace/QAQ_chatbot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C45C21-998B-B747-8FD8-CCFE07FB96B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="33340" windowHeight="21400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
   <si>
     <t>Parts</t>
   </si>
@@ -40,9 +37,6 @@
     <t>Tool magazine (Umbrella type)</t>
   </si>
   <si>
-    <t>Noise for tool changing umbrella</t>
-  </si>
-  <si>
     <t>Can't change the tool</t>
   </si>
   <si>
@@ -92,13 +86,34 @@
   </si>
   <si>
     <t>Set Feed Rate knob as 0 under HANDWHEEL model, press RESET to get the tool magazine back.</t>
+  </si>
+  <si>
+    <t>Trouble Shoot (Arm type)</t>
+  </si>
+  <si>
+    <t>Noise for tool changing</t>
+  </si>
+  <si>
+    <t>Adjust the second reference position, spindle positioning angle, spindle tool positioning, spindle tool switch positioning etc.</t>
+  </si>
+  <si>
+    <t>Check if the brake is too tight or too loosen</t>
+  </si>
+  <si>
+    <t>Check the tool sleeve's tolerance</t>
+  </si>
+  <si>
+    <t>Arm not back to zero, adjust the arm screw to ZERO point, when the power on is ok</t>
+  </si>
+  <si>
+    <t>RESET to get the tool magazine back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,17 +171,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +269,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +321,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,397 +514,381 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="102.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15">
+      <c r="C26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenayang/Desktop/python Workspace/QAQ_chatbot/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7F30D-7FDE-2B41-B7E7-99BCC063CB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="26000" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1</t>
-  </si>
-  <si>
-    <t>Unnamed: 0.1.1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>Parts</t>
   </si>
@@ -92,13 +89,31 @@
   </si>
   <si>
     <t>Set Feed Rate knob as 0 under HANDWHEEL model, press RESET to get the tool magazine back.</t>
+  </si>
+  <si>
+    <t>Noise for tool changing</t>
+  </si>
+  <si>
+    <t>Adjust the second reference position, spindle positioning angle, spindle tool positioning, spindle tool switch positioning etc.</t>
+  </si>
+  <si>
+    <t>Check if the brake is too tight or too loosen</t>
+  </si>
+  <si>
+    <t>Check the tool sleeve's tolerance</t>
+  </si>
+  <si>
+    <t>Arm not back to zero, adjust the arm screw to ZERO point, when the power on is ok</t>
+  </si>
+  <si>
+    <t>Tool magazine (Arm type)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,17 +171,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +269,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +321,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -448,397 +514,365 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="28" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenayang/Desktop/python Workspace/QAQ_chatbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC7F30D-7FDE-2B41-B7E7-99BCC063CB15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F99884B-DD50-694E-994B-E55C27FA3738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="26000" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5840" yWindow="4840" windowWidth="29440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
   <si>
     <t>Parts</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Tool magazine (Umbrella type)</t>
   </si>
   <si>
-    <t>Noise for tool changing umbrella</t>
+    <t>Tool magazine (Arm type)</t>
+  </si>
+  <si>
+    <t>Noise for tool changing</t>
   </si>
   <si>
     <t>Can't change the tool</t>
@@ -91,9 +94,6 @@
     <t>Set Feed Rate knob as 0 under HANDWHEEL model, press RESET to get the tool magazine back.</t>
   </si>
   <si>
-    <t>Noise for tool changing</t>
-  </si>
-  <si>
     <t>Adjust the second reference position, spindle positioning angle, spindle tool positioning, spindle tool switch positioning etc.</t>
   </si>
   <si>
@@ -104,16 +104,13 @@
   </si>
   <si>
     <t>Arm not back to zero, adjust the arm screw to ZERO point, when the power on is ok</t>
-  </si>
-  <si>
-    <t>Tool magazine (Arm type)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,12 +125,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,12 +162,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,368 +505,443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="28" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenayang/Desktop/python Workspace/QAQ_chatbot/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39ACD1C-F1DE-3D41-A759-DC2297F1A230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="4840" windowWidth="29440" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Parts</t>
   </si>
@@ -109,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +170,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,21 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="59.6640625" customWidth="1"/>
-    <col min="4" max="4" width="65.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,417 +477,491 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="B4">
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
+      <c r="B7">
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
+      <c r="B9">
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>4</v>
+      <c r="B10">
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
+      <c r="B11">
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13">
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
+      <c r="B15">
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
+      <c r="B16">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
+      <c r="B17">
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
+      <c r="B18">
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
+      <c r="B19">
+        <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
+      <c r="B20">
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
+      <c r="B21">
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
+      <c r="B22">
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
+      <c r="B23">
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
+      <c r="B24">
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25">
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -1,33 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/helenayang/Desktop/python Workspace/QAQ_chatbot/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A436AC-99E1-914A-A20A-84C5C420559D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6580" yWindow="4180" windowWidth="26080" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="29">
+  <si>
+    <t>Error</t>
+  </si>
   <si>
     <t>Parts</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Solution</t>
   </si>
   <si>
@@ -37,22 +31,25 @@
     <t>Tool magazine (Umbrella type)</t>
   </si>
   <si>
+    <t>Tool number in chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> finally </t>
+  </si>
+  <si>
+    <t>Noise for tool changing</t>
+  </si>
+  <si>
+    <t>Can't change the tool</t>
+  </si>
+  <si>
+    <t>Tool magazine keep rotation</t>
+  </si>
+  <si>
+    <t>Tool magazine not drawing back</t>
+  </si>
+  <si>
     <t>Tool magazine (Arm type)</t>
-  </si>
-  <si>
-    <t>Noise for tool changing</t>
-  </si>
-  <si>
-    <t>Can't change the tool</t>
-  </si>
-  <si>
-    <t>Tool number in chaos</t>
-  </si>
-  <si>
-    <t>Tool magazine keep rotation</t>
-  </si>
-  <si>
-    <t>Tool magazine not drawing back</t>
   </si>
   <si>
     <t>Check the air pressure</t>
@@ -109,8 +106,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +170,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,367 +457,383 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.5" customWidth="1"/>
-    <col min="3" max="3" width="53.1640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
+    <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
         <v>0</v>
       </c>
     </row>

--- a/data/cnc_troubleshooting.xlsx
+++ b/data/cnc_troubleshooting.xlsx
@@ -28,79 +28,79 @@
     <t>appear_time</t>
   </si>
   <si>
+    <t>Noise for tool changing</t>
+  </si>
+  <si>
+    <t>Can't change the tool</t>
+  </si>
+  <si>
+    <t>Tool number in chaos</t>
+  </si>
+  <si>
+    <t>Tool magazine keep rotation</t>
+  </si>
+  <si>
+    <t>Tool magazine not drawing back</t>
+  </si>
+  <si>
     <t>Tool magazine (Umbrella type)</t>
   </si>
   <si>
-    <t>Tool number in chaos</t>
+    <t>Tool magazine (Arm type)</t>
+  </si>
+  <si>
+    <t>Check the air pressure</t>
+  </si>
+  <si>
+    <t>Check the milling chuck pull stud model</t>
+  </si>
+  <si>
+    <t>Check the cylindrical travel</t>
+  </si>
+  <si>
+    <t>Check the oil input</t>
+  </si>
+  <si>
+    <t>Check the tool magazine manually, if can't move, check the circuit breaker</t>
+  </si>
+  <si>
+    <t>Check if tool magazine motor phase is right or not</t>
+  </si>
+  <si>
+    <t>Check if the limit switch of tool loosening is in right position</t>
+  </si>
+  <si>
+    <t>Check if the sensor switch is right or not</t>
+  </si>
+  <si>
+    <t>Check if the tools is hit or the reference point is changing, adjust 3-axis parameter according to P 2038(MITSUBISHI) or P1241(FANUC)</t>
+  </si>
+  <si>
+    <t>Check if the motor phase</t>
+  </si>
+  <si>
+    <t>Reset the tool magazine, and re-perform the procedure</t>
+  </si>
+  <si>
+    <t>Adjust the tool counter</t>
+  </si>
+  <si>
+    <t>Set Feed Rate knob as 0 under HANDWHEEL model, press RESET to get the tool magazine back.</t>
+  </si>
+  <si>
+    <t>Adjust the second reference position, spindle positioning angle, spindle tool positioning, spindle tool switch positioning etc.</t>
+  </si>
+  <si>
+    <t>Check if the brake is too tight or too loosen</t>
+  </si>
+  <si>
+    <t>Check the tool sleeve's tolerance</t>
+  </si>
+  <si>
+    <t>Arm not back to zero, adjust the arm screw to ZERO point, when the power on is ok</t>
   </si>
   <si>
     <t xml:space="preserve"> finally </t>
-  </si>
-  <si>
-    <t>Noise for tool changing</t>
-  </si>
-  <si>
-    <t>Can't change the tool</t>
-  </si>
-  <si>
-    <t>Tool magazine keep rotation</t>
-  </si>
-  <si>
-    <t>Tool magazine not drawing back</t>
-  </si>
-  <si>
-    <t>Tool magazine (Arm type)</t>
-  </si>
-  <si>
-    <t>Check the air pressure</t>
-  </si>
-  <si>
-    <t>Check the milling chuck pull stud model</t>
-  </si>
-  <si>
-    <t>Check the cylindrical travel</t>
-  </si>
-  <si>
-    <t>Check the oil input</t>
-  </si>
-  <si>
-    <t>Check the tool magazine manually, if can't move, check the circuit breaker</t>
-  </si>
-  <si>
-    <t>Check if tool magazine motor phase is right or not</t>
-  </si>
-  <si>
-    <t>Check if the limit switch of tool loosening is in right position</t>
-  </si>
-  <si>
-    <t>Check if the sensor switch is right or not</t>
-  </si>
-  <si>
-    <t>Check if the tools is hit or the reference point is changing, adjust 3-axis parameter according to P 2038(MITSUBISHI) or P1241(FANUC)</t>
-  </si>
-  <si>
-    <t>Check if the motor phase</t>
-  </si>
-  <si>
-    <t>Reset the tool magazine, and re-perform the procedure</t>
-  </si>
-  <si>
-    <t>Adjust the tool counter</t>
-  </si>
-  <si>
-    <t>Set Feed Rate knob as 0 under HANDWHEEL model, press RESET to get the tool magazine back.</t>
-  </si>
-  <si>
-    <t>Adjust the second reference position, spindle positioning angle, spindle tool positioning, spindle tool switch positioning etc.</t>
-  </si>
-  <si>
-    <t>Check if the brake is too tight or too loosen</t>
-  </si>
-  <si>
-    <t>Check the tool sleeve's tolerance</t>
-  </si>
-  <si>
-    <t>Arm not back to zero, adjust the arm screw to ZERO point, when the power on is ok</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,13 +483,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -497,13 +497,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -525,13 +525,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -539,13 +539,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -553,13 +553,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -581,13 +581,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -595,13 +595,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -609,13 +609,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -623,13 +623,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -637,27 +637,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="B13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -665,13 +665,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -679,161 +679,155 @@
     </row>
     <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
         <v>11</v>
       </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
         <v>28</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="E26">
         <v>0</v>
       </c>
     </row>
